--- a/Excel/5. Logical/logical.xlsx
+++ b/Excel/5. Logical/logical.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\5. Logical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\5. Logical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F3840-01A7-4471-AF80-8219928A9B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B897E-1A5A-4955-8E2C-C801E438BDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AND OR" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>Example</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>Student 6</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x and y</t>
+  </si>
+  <si>
+    <t>x or y</t>
   </si>
 </sst>
 </file>
@@ -317,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -564,63 +582,67 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,11 +671,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1515,7 +1536,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1539,10 +1560,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1550,25 +1571,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="K1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1577,7 +1598,7 @@
       <c r="P3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="65" t="s">
+      <c r="Q3" s="35" t="s">
         <v>34</v>
       </c>
       <c r="R3" s="27" t="s">
@@ -1586,13 +1607,13 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1621,11 +1642,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1642,25 +1663,25 @@
       <c r="O5" s="24">
         <v>85</v>
       </c>
-      <c r="P5" s="63" t="b">
+      <c r="P5" s="65" t="b">
         <f>M5=100</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="64" t="b">
+      <c r="Q5" s="65" t="b">
         <f>AND(M5&gt;75,N5&gt;75,O5&gt;75)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="63" t="b">
+      <c r="R5" s="65" t="b">
         <f>OR(M5&lt;35,N5&lt;35,O5&lt;35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1673,25 +1694,25 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="63" t="b">
+      <c r="P6" s="65" t="b">
         <f t="shared" ref="P6:P9" si="0">M6=100</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="63" t="b">
+      <c r="Q6" s="65" t="b">
         <f t="shared" ref="Q6:Q9" si="1">AND(M6&gt;75,N6&gt;75,O6&gt;75)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="63" t="b">
+      <c r="R6" s="65" t="b">
         <f t="shared" ref="R6:R9" si="2">OR(M6&lt;35,N6&lt;35,O6&lt;35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -1704,25 +1725,25 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="63" t="b">
+      <c r="P7" s="65" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="64" t="b">
+      <c r="Q7" s="67" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R7" s="63" t="b">
+      <c r="R7" s="65" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -1735,25 +1756,25 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="64" t="b">
+      <c r="P8" s="67" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="64" t="b">
+      <c r="Q8" s="67" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R8" s="63" t="b">
+      <c r="R8" s="65" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -1766,33 +1787,33 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="63" t="b">
+      <c r="P9" s="65" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="63" t="b">
+      <c r="Q9" s="65" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="64" t="b">
+      <c r="R9" s="67" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -1803,78 +1824,138 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="L15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="L16" s="66">
+        <v>0</v>
+      </c>
+      <c r="M16" s="66">
+        <v>1</v>
+      </c>
+      <c r="N16" s="66">
+        <v>0</v>
+      </c>
+      <c r="O16" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="L17" s="66">
+        <v>1</v>
+      </c>
+      <c r="M17" s="66">
+        <v>0</v>
+      </c>
+      <c r="N17" s="66">
+        <v>0</v>
+      </c>
+      <c r="O17" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="L18" s="66">
+        <v>0</v>
+      </c>
+      <c r="M18" s="66">
+        <v>0</v>
+      </c>
+      <c r="N18" s="66">
+        <v>0</v>
+      </c>
+      <c r="O18" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="L19" s="66">
+        <v>1</v>
+      </c>
+      <c r="M19" s="66">
+        <v>1</v>
+      </c>
+      <c r="N19" s="66">
+        <v>1</v>
+      </c>
+      <c r="O19" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1885,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -1921,23 +2002,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="35"/>
+      <c r="K1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="55"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1955,13 +2036,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1990,11 +2071,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2022,11 +2103,11 @@
       <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2050,11 +2131,11 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2078,11 +2159,11 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2106,11 +2187,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2134,19 +2215,19 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -2181,13 +2262,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="L14" s="29" t="s">
         <v>17</v>
       </c>
@@ -2211,11 +2292,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="L15" s="29" t="s">
         <v>18</v>
       </c>
@@ -2236,11 +2317,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="L16" s="29" t="s">
         <v>19</v>
       </c>
@@ -2260,11 +2341,11 @@
       <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
@@ -2284,11 +2365,11 @@
       <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
       <c r="L18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2308,25 +2389,25 @@
       <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2385,24 +2466,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="K1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2411,13 +2492,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2446,11 +2527,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2481,11 +2562,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2512,11 +2593,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2543,11 +2624,11 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2574,11 +2655,11 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2605,11 +2686,11 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
       <c r="L10" s="24" t="s">
         <v>44</v>
       </c>
@@ -2637,11 +2718,11 @@
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="4"/>
@@ -2655,13 +2736,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="L14" s="28" t="s">
         <v>29</v>
       </c>
@@ -2677,11 +2758,11 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="L15" s="22" t="s">
         <v>30</v>
       </c>
@@ -2697,11 +2778,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="L16" s="22" t="s">
         <v>31</v>
       </c>
@@ -2716,11 +2797,11 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
       <c r="L17" s="22" t="s">
         <v>32</v>
       </c>
@@ -2735,36 +2816,36 @@
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
       <c r="L19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
       <c r="L21" s="31" t="s">
         <v>39</v>
       </c>
@@ -2804,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -2837,23 +2918,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
+      <c r="K1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2862,13 +2943,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2897,11 +2978,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2932,11 +3013,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
@@ -2963,11 +3044,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2994,11 +3075,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
@@ -3025,11 +3106,11 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="20" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +3120,7 @@
       <c r="N9" s="20">
         <v>60</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="36">
         <v>30</v>
       </c>
       <c r="P9" s="20" t="b">
@@ -3056,19 +3137,19 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="L11" s="26" t="s">
         <v>41</v>
       </c>
@@ -3095,13 +3176,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="L14" s="21" t="b">
         <v>0</v>
       </c>
@@ -3120,54 +3201,54 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
